--- a/code/数据库设计/军队设计.xlsx
+++ b/code/数据库设计/军队设计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\code\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43A9A1-525A-4BA4-9187-9B231AA03C7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,32 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>本次部队的ID</t>
+    <t>部队名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所属势力的ID</t>
+    <t>主将ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主将的ID</t>
+    <t>副将ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部队名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,160 +377,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/code/数据库设计/军队设计.xlsx
+++ b/code/数据库设计/军队设计.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\code\数据库设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\学习\软件工程基础\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43A9A1-525A-4BA4-9187-9B231AA03C7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +24,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>本次部队的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主将的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副将的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>部队名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部队ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主将ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,31 +388,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
